--- a/GAP Analysis.xlsx
+++ b/GAP Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB365CC-3788-B746-ADB9-301DD189BF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB72A6F-A5DE-7A45-BC3A-16A80E5F38E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Yes</t>
   </si>
@@ -185,6 +175,9 @@
   </si>
   <si>
     <t>HIGH</t>
+  </si>
+  <si>
+    <t>this is changed here!!</t>
   </si>
 </sst>
 </file>
@@ -742,7 +735,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1090,6 +1083,9 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1243,6 +1239,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1450,25 +1464,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1486,22 +1500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GAP Analysis.xlsx
+++ b/GAP Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB72A6F-A5DE-7A45-BC3A-16A80E5F38E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E464F9-B52A-A543-9F27-87ED430B224B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Yes</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>this is changed here!!</t>
+  </si>
+  <si>
+    <t>this is also changed here</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1085,6 +1088,9 @@
     <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1239,24 +1245,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1464,25 +1452,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1500,4 +1488,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GAP Analysis.xlsx
+++ b/GAP Analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E464F9-B52A-A543-9F27-87ED430B224B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AE06BE-BCDD-E342-A02A-D8D55491E6C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Yes</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>this is also changed here</t>
+  </si>
+  <si>
+    <t>changed</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1091,6 +1094,9 @@
       </c>
       <c r="F16" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1245,6 +1251,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1452,25 +1476,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1488,22 +1512,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>